--- a/Class Details/DS3 - Class Detail.xlsx
+++ b/Class Details/DS3 - Class Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A2B35-6CB7-4056-AD49-05D116AD1C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D8E06-3B56-42D6-8E25-66C3466E7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS3-Class Detail" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Zone</t>
   </si>
@@ -46,9 +46,6 @@
     <t>BR.RAMZAN JAMANI</t>
   </si>
   <si>
-    <t>Muhammad Raza Lokhandwala</t>
-  </si>
-  <si>
     <t>Br Taha Sheliya</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Br Mohammed Yusuf Hasan</t>
   </si>
   <si>
-    <t>Sayyed Musayiab Abbas</t>
-  </si>
-  <si>
     <t>Contact Detail</t>
   </si>
   <si>
@@ -127,10 +121,22 @@
     <t>#</t>
   </si>
   <si>
-    <t>Class Information - DS3</t>
-  </si>
-  <si>
     <t>Brs. Name</t>
+  </si>
+  <si>
+    <t>Dy. Nazim</t>
+  </si>
+  <si>
+    <t>Br.Sayyed Musayiab Abbas</t>
+  </si>
+  <si>
+    <t>Br. Sayyed Musayiab Abbas</t>
+  </si>
+  <si>
+    <t>Br. Muhammad Raza Lokhandwala</t>
+  </si>
+  <si>
+    <t>Class Information</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -380,95 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -480,6 +397,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,13 +447,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,44 +465,44 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,187 +808,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.3984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.296875" customWidth="1"/>
     <col min="4" max="4" width="30.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="26">
+        <v>41782</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="15">
-        <v>41782</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
@@ -1065,37 +993,57 @@
     </row>
     <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -1103,12 +1051,9 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{63773F34-6751-406F-89D8-0E08D39B54B1}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{63773F34-6751-406F-89D8-0E08D39B54B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/Class Details/DS3 - Class Detail.xlsx
+++ b/Class Details/DS3 - Class Detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Class Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D8E06-3B56-42D6-8E25-66C3466E7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284932C2-B9C2-4A62-88BA-1439C1428197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Zone</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Class Information</t>
+  </si>
+  <si>
+    <t>mohdyusuf93@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -465,6 +468,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -473,36 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -823,90 +826,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="26">
+      <c r="B5" s="24"/>
+      <c r="C5" s="19">
         <v>41782</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9"/>
@@ -1016,7 +1019,9 @@
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,6 +1041,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
@@ -1044,18 +1056,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D16" r:id="rId1" xr:uid="{63773F34-6751-406F-89D8-0E08D39B54B1}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{A2BD705B-E7FF-4801-9268-2C1D2AE707B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>